--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puche\Documents\ChallengeAmazon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3185B-7F36-425A-AFBC-3A47169C6AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B8B8D-97EC-4143-9B3D-9C10D5B21FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Data\Input\Template.xlsx</t>
   </si>
   <si>
-    <t>Data\Input\ProductosFormateados.xlsx</t>
-  </si>
-  <si>
     <t>Ruta del PDF donde estan cargados los productos en un formato especifico</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>06/13/2025</t>
+  </si>
+  <si>
+    <t>Data\Output\ProductosFormateados.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1883,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1894,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1902,65 +1902,65 @@
         <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>10000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>100000</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
